--- a/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_CHEMOURS EL DORADO.xlsx
+++ b/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_CHEMOURS EL DORADO.xlsx
@@ -599,10 +599,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>50</v>
@@ -611,10 +611,10 @@
         <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G9" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -622,22 +622,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="C10" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -843,10 +843,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="C9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.064</v>
+        <v>0.077</v>
       </c>
     </row>
   </sheetData>
